--- a/taxas_de_imi.xlsx
+++ b/taxas_de_imi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruicruzeiro/code/poupar_no_imi/poupar_no_imi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F581A-DBD2-1E4D-8A34-0F49636B9610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200E41F9-310E-1746-AC4E-DD754E45DBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30180" yWindow="1920" windowWidth="27640" windowHeight="16440" xr2:uid="{3FCA34E6-75ED-944F-B0A6-E7E5754BAD5D}"/>
   </bookViews>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:J341"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+      <selection activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7359,7 +7359,7 @@
         <v>443</v>
       </c>
       <c r="D323" s="1" t="str">
-        <f t="shared" ref="D323:D326" si="5">CONCATENATE("'",A323,"'"," : ",C323,",")</f>
+        <f t="shared" ref="D323:D341" si="5">CONCATENATE("'",A323,"'"," : ",C323,",")</f>
         <v>'1821' : 0.003,</v>
       </c>
       <c r="I323" s="2"/>
@@ -7431,6 +7431,10 @@
       <c r="C330" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="D330" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130401' : 0.00361,</v>
+      </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
@@ -7442,6 +7446,10 @@
       <c r="C331" s="3" t="s">
         <v>457</v>
       </c>
+      <c r="D331" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130402' : 0.0041,</v>
+      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
@@ -7453,6 +7461,10 @@
       <c r="C332" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="D332" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130403' : 0.00361,</v>
+      </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
@@ -7464,6 +7476,10 @@
       <c r="C333" s="3" t="s">
         <v>457</v>
       </c>
+      <c r="D333" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130404' : 0.0041,</v>
+      </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
@@ -7475,6 +7491,10 @@
       <c r="C334" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="D334" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130405' : 0.00361,</v>
+      </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
@@ -7486,6 +7506,10 @@
       <c r="C335" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="D335" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130406' : 0.00361,</v>
+      </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
@@ -7497,8 +7521,12 @@
       <c r="C336" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130407' : 0.00361,</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>130408</v>
       </c>
@@ -7508,8 +7536,12 @@
       <c r="C337" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130408' : 0.0041,</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>130409</v>
       </c>
@@ -7519,8 +7551,12 @@
       <c r="C338" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130409' : 0.0041,</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>130410</v>
       </c>
@@ -7530,8 +7566,12 @@
       <c r="C339" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130410' : 0.0041,</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>130411</v>
       </c>
@@ -7541,8 +7581,12 @@
       <c r="C340" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130411' : 0.0041,</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>130412</v>
       </c>
@@ -7551,6 +7595,10 @@
       </c>
       <c r="C341" s="3" t="s">
         <v>457</v>
+      </c>
+      <c r="D341" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'130412' : 0.0041,</v>
       </c>
     </row>
   </sheetData>
